--- a/Test Cases/Positive Test Cases/User actions test suite.xlsx
+++ b/Test Cases/Positive Test Cases/User actions test suite.xlsx
@@ -67,9 +67,6 @@
     <t>2. Make sure members packs are displayed at the middle of the page</t>
   </si>
   <si>
-    <t>Test case № 3</t>
-  </si>
-  <si>
     <t>Send message to the Web Admins</t>
   </si>
   <si>
@@ -163,7 +160,10 @@
     <t xml:space="preserve">You are logged out and redirected to Home Page. Log Out link  are replaced by Log In link at Nacepin menu bar. </t>
   </si>
   <si>
-    <t>Test Case № 8</t>
+    <t>Test case № 2</t>
+  </si>
+  <si>
+    <t>Test Case № 3</t>
   </si>
 </sst>
 </file>
@@ -186,12 +186,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,9 +212,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,15 +535,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -588,15 +596,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -618,33 +627,34 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -652,7 +662,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -660,126 +670,129 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
         <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
         <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -787,7 +800,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -795,60 +808,61 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
         <v>37</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
         <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
         <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
